--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl2-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl2-Ackr2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.856666</v>
+        <v>4.232924</v>
       </c>
       <c r="H2">
-        <v>110.569998</v>
+        <v>12.698772</v>
       </c>
       <c r="I2">
-        <v>0.1389359711410444</v>
+        <v>0.05792409824508498</v>
       </c>
       <c r="J2">
-        <v>0.1389359711410443</v>
+        <v>0.05792409824508497</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -567,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>20.15649292651867</v>
+        <v>2.314938162461333</v>
       </c>
       <c r="R2">
-        <v>181.408436338668</v>
+        <v>20.834443462152</v>
       </c>
       <c r="S2">
-        <v>0.1389359711410444</v>
+        <v>0.05792409824508498</v>
       </c>
       <c r="T2">
-        <v>0.1389359711410443</v>
+        <v>0.05792409824508497</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>71.338966</v>
       </c>
       <c r="I3">
-        <v>0.089640487480229</v>
+        <v>0.3254051080913003</v>
       </c>
       <c r="J3">
-        <v>0.08964048748022899</v>
+        <v>0.3254051080913002</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -635,10 +635,10 @@
         <v>117.043415991356</v>
       </c>
       <c r="S3">
-        <v>0.089640487480229</v>
+        <v>0.3254051080913003</v>
       </c>
       <c r="T3">
-        <v>0.08964048748022899</v>
+        <v>0.3254051080913002</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.456122</v>
+        <v>7.006365333333332</v>
       </c>
       <c r="H4">
-        <v>16.368366</v>
+        <v>21.019096</v>
       </c>
       <c r="I4">
-        <v>0.02056755781258178</v>
+        <v>0.09587637148905993</v>
       </c>
       <c r="J4">
-        <v>0.02056755781258178</v>
+        <v>0.09587637148905992</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>2.983891285750667</v>
+        <v>3.831701795326222</v>
       </c>
       <c r="R4">
-        <v>26.855021571756</v>
+        <v>34.485316157936</v>
       </c>
       <c r="S4">
-        <v>0.02056755781258178</v>
+        <v>0.09587637148905993</v>
       </c>
       <c r="T4">
-        <v>0.02056755781258178</v>
+        <v>0.09587637148905992</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>199.1856246666667</v>
+        <v>38.058136</v>
       </c>
       <c r="H5">
-        <v>597.556874</v>
+        <v>114.174408</v>
       </c>
       <c r="I5">
-        <v>0.7508559835661449</v>
+        <v>0.5207944221745548</v>
       </c>
       <c r="J5">
-        <v>0.7508559835661449</v>
+        <v>0.5207944221745548</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -753,16 +753,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>108.9323606931204</v>
+        <v>20.81356325285867</v>
       </c>
       <c r="R5">
-        <v>980.3912462380839</v>
+        <v>187.322069275728</v>
       </c>
       <c r="S5">
-        <v>0.7508559835661449</v>
+        <v>0.5207944221745548</v>
       </c>
       <c r="T5">
-        <v>0.7508559835661449</v>
+        <v>0.5207944221745548</v>
       </c>
     </row>
   </sheetData>
